--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1162.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1162.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.13854601823433</v>
+        <v>1.165764093399048</v>
       </c>
       <c r="B1">
-        <v>1.253441431368442</v>
+        <v>2.426128625869751</v>
       </c>
       <c r="C1">
-        <v>1.484199109437628</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.609781333881857</v>
+        <v>2.373390913009644</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.235076546669006</v>
       </c>
     </row>
   </sheetData>
